--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamac\OneDrive - UNIVERSIDAD DE SEVILLA\TFG\TFG_GITT_Joscanege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_AD4D2F04E46CFB4ACB3E20020D11CADA683EDF22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD81E3F7-24E3-4F58-A032-0A195CEDCD13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF0ADB-7EA9-4984-90F1-83145A7CD1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3060" yWindow="2460" windowWidth="8640" windowHeight="7095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Parámetros" sheetId="1" r:id="rId1"/>
+    <sheet name="Preguntas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1572,19 +1570,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{021551F0-3FAA-4A81-816B-7AD3D2172BB0}" name="Tabla1" displayName="Tabla1" ref="A1:J50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J50" xr:uid="{021551F0-3FAA-4A81-816B-7AD3D2172BB0}">
-    <filterColumn colId="4">
+    <filterColumn colId="7">
       <filters>
-        <filter val="General"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Obj2B"/>
+        <filter val="Encuesta"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:J29">
-    <sortCondition ref="B1:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:J47">
+    <sortCondition ref="J1:J50"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="7" xr3:uid="{22A19C27-DB29-4B06-A841-5D745AF6AA23}" name="Id" dataDxfId="9"/>
@@ -1869,19 +1862,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="3" max="4" width="40.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2013,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A87)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A87)</f>
         <v>Q76</v>
       </c>
     </row>
@@ -2047,7 +2040,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A82)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A82)</f>
         <v>Q71</v>
       </c>
     </row>
@@ -2081,7 +2074,7 @@
         <v>64</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A84)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A84)</f>
         <v>Q73</v>
       </c>
     </row>
@@ -2115,7 +2108,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A83)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A83)</f>
         <v>Q72</v>
       </c>
     </row>
@@ -2149,7 +2142,7 @@
         <v>64</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A85)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A85)</f>
         <v>Q74</v>
       </c>
     </row>
@@ -2183,26 +2176,26 @@
         <v>29</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A79)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A79)</f>
         <v>Q68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño de contenido - Obj2B</v>
+        <v>General - Obj2B</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>170</v>
@@ -2214,29 +2207,29 @@
         <v>42</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J10" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A46:A47)</f>
-        <v>Q39,Q40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A31:A34)</f>
+        <v>Q24,Q25,Q26,Q27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño de contenido - Obj2B</v>
+        <v>Diseño técnico - Obj2B</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>170</v>
@@ -2251,8 +2244,8 @@
         <v>29</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A44:A45)</f>
-        <v>Q37,Q38</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A35:A36)</f>
+        <v>Q28,Q29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2285,26 +2278,26 @@
         <v>29</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A79)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A79)</f>
         <v>Q68</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño de contenido - Obj2B</v>
+        <v>Diseño técnico - Obj2B</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>170</v>
@@ -2319,26 +2312,26 @@
         <v>29</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A48:A49)</f>
-        <v>Q41,Q42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A37:A38)</f>
+        <v>Q30,Q31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño de contenido - Obj2B</v>
+        <v>Diseño técnico - Obj2B</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>170</v>
@@ -2353,19 +2346,19 @@
         <v>29</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A42:A43)</f>
-        <v>Q35,Q36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A39:A40)</f>
+        <v>Q32,Q33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
@@ -2384,29 +2377,29 @@
         <v>42</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A50)</f>
-        <v>Q43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A41)</f>
+        <v>Q34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño metodológico - Obj2B</v>
+        <v>Diseño de contenido - Obj2B</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>170</v>
@@ -2418,29 +2411,29 @@
         <v>42</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J16" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A65)</f>
-        <v>Q58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A42:A43)</f>
+        <v>Q35,Q36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño metodológico - Obj2B</v>
+        <v>Diseño de contenido - Obj2B</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>170</v>
@@ -2452,11 +2445,11 @@
         <v>42</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J17" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A66)</f>
-        <v>Q59</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A44:A45)</f>
+        <v>Q37,Q38</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2489,26 +2482,26 @@
         <v>29</v>
       </c>
       <c r="J18" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A81)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A81)</f>
         <v>Q70</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño metodológico - Obj2B</v>
+        <v>Diseño de contenido - Obj2B</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>170</v>
@@ -2520,29 +2513,29 @@
         <v>42</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J19" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A67)</f>
-        <v>Q60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A46:A47)</f>
+        <v>Q39,Q40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño metodológico - Obj2B</v>
+        <v>Diseño de contenido - Obj2B</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>170</v>
@@ -2554,11 +2547,11 @@
         <v>42</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J20" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A41)</f>
-        <v>Q34</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A48:A49)</f>
+        <v>Q41,Q42</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2591,26 +2584,26 @@
         <v>50</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A86)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A86)</f>
         <v>Q75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño técnico - Obj2B</v>
+        <v>Diseño metodológico - Obj2B</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>170</v>
@@ -2625,29 +2618,29 @@
         <v>29</v>
       </c>
       <c r="J22" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A35:A36)</f>
-        <v>Q28,Q29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A50)</f>
+        <v>Q43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño técnico - Obj2B</v>
+        <v>Motivacional - Obj2A</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>33</v>
@@ -2656,11 +2649,11 @@
         <v>42</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J23" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A39:A40)</f>
-        <v>Q32,Q33</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A51:A52)</f>
+        <v>Q44,Q45</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,29 +2686,29 @@
         <v>29</v>
       </c>
       <c r="J24" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A78)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A78)</f>
         <v>Q67</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Diseño técnico - Obj2B</v>
+        <v>Motivacional - Obj2A</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>33</v>
@@ -2724,11 +2717,11 @@
         <v>42</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J25" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A37:A38)</f>
-        <v>Q30,Q31</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A53)</f>
+        <v>Q46</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,7 +2754,7 @@
         <v>74</v>
       </c>
       <c r="J26" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A77)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A77)</f>
         <v>Q66</v>
       </c>
     </row>
@@ -2795,7 +2788,7 @@
         <v>29</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A76)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A76)</f>
         <v>Q65</v>
       </c>
     </row>
@@ -2829,7 +2822,7 @@
         <v>29</v>
       </c>
       <c r="J28" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A80)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A80)</f>
         <v>Q69</v>
       </c>
     </row>
@@ -2863,11 +2856,11 @@
         <v>50</v>
       </c>
       <c r="J29" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A75)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A75)</f>
         <v>Q64</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
@@ -2897,29 +2890,29 @@
         <v>15</v>
       </c>
       <c r="J30" s="5" t="str">
-        <f>Hoja2!A9</f>
+        <f>Preguntas!A9</f>
         <v>Q6</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>General - Obj2B</v>
+        <v>Motivacional - Obj2A</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>33</v>
@@ -2928,14 +2921,14 @@
         <v>42</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J31" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A31:A34)</f>
-        <v>Q24,Q25,Q26,Q27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A54:A55)</f>
+        <v>Q47,Q48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>142</v>
       </c>
@@ -2965,11 +2958,11 @@
         <v>15</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f>Hoja2!A21</f>
+        <f>Preguntas!A21</f>
         <v>Q18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>143</v>
       </c>
@@ -2999,11 +2992,11 @@
         <v>11</v>
       </c>
       <c r="J33" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A14:A15)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A14:A15)</f>
         <v>Q11,Q12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>144</v>
       </c>
@@ -3033,7 +3026,7 @@
         <v>21</v>
       </c>
       <c r="J34" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A5:A6)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A5:A6)</f>
         <v>Q2,Q3</v>
       </c>
     </row>
@@ -3067,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="J35" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A16)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A16)</f>
         <v>Q13</v>
       </c>
     </row>
@@ -3101,19 +3094,19 @@
         <v>18</v>
       </c>
       <c r="J36" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A22)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A22)</f>
         <v>Q19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D37" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
@@ -3132,22 +3125,22 @@
         <v>42</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J37" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A53)</f>
-        <v>Q46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A56:A57)</f>
+        <v>Q49,Q50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
@@ -3166,22 +3159,22 @@
         <v>42</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J38" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A59)</f>
-        <v>Q52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A58)</f>
+        <v>Q51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
@@ -3200,22 +3193,22 @@
         <v>42</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J39" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A60:A61)</f>
-        <v>Q53,Q54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A59)</f>
+        <v>Q52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
@@ -3234,22 +3227,22 @@
         <v>42</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J40" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A62:A63)</f>
-        <v>Q55,Q56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A60:A61)</f>
+        <v>Q53,Q54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D41" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
@@ -3268,22 +3261,22 @@
         <v>42</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J41" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A56:A57)</f>
-        <v>Q49,Q50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A62:A63)</f>
+        <v>Q55,Q56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D42" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
@@ -3302,32 +3295,32 @@
         <v>42</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="J42" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A54:A55)</f>
-        <v>Q47,Q48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A64)</f>
+        <v>Q57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="D43" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Motivacional - Obj2A</v>
+        <v>Diseño metodológico - Obj2B</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>33</v>
@@ -3336,32 +3329,32 @@
         <v>42</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J43" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A58)</f>
-        <v>Q51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A65)</f>
+        <v>Q58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="D44" s="5" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Motivacional - Obj2A</v>
+        <v>Diseño metodológico - Obj2B</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>33</v>
@@ -3370,32 +3363,32 @@
         <v>42</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="J44" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A64)</f>
-        <v>Q57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A66)</f>
+        <v>Q59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="D45" s="9" t="str">
         <f>Tabla1[[#This Row],[Aspecto]]&amp;" - "&amp;Tabla1[[#This Row],[Objetivo]]</f>
-        <v>Motivacional - Obj2A</v>
+        <v>Diseño metodológico - Obj2B</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>33</v>
@@ -3404,11 +3397,11 @@
         <v>42</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J45" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A51:A52)</f>
-        <v>Q44,Q45</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A67)</f>
+        <v>Q60</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -3441,11 +3434,11 @@
         <v>29</v>
       </c>
       <c r="J46" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A88:A90)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A88:A90)</f>
         <v>Q77,Q78,Q79</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>264</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>29</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A68:A70)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A68:A70)</f>
         <v>Q61,Q62,Q63</v>
       </c>
     </row>
@@ -3509,7 +3502,7 @@
         <v>29</v>
       </c>
       <c r="J48" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A91)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A91)</f>
         <v>Q80</v>
       </c>
     </row>
@@ -3543,7 +3536,7 @@
         <v>29</v>
       </c>
       <c r="J49" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A93)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A93)</f>
         <v>Q82</v>
       </c>
     </row>
@@ -3577,7 +3570,7 @@
         <v>29</v>
       </c>
       <c r="J50" s="5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Hoja2!A92)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Preguntas!A92)</f>
         <v>Q81</v>
       </c>
     </row>
@@ -3595,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2BBD46-711D-4B8C-B248-293FDCAED70D}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:A93"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,8 +4020,8 @@
         <v>42</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(C35:C70,"&lt;&gt;")</f>
-        <v>36</v>
+        <f>COUNTIF(C31:C70,"&lt;&gt;")</f>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,12 +4666,12 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C71" t="str">
-        <f>_xlfn.TEXTJOIN("::",TRUE,C35:C70)</f>
-        <v>int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int0-10::text::text</v>
+        <f>_xlfn.TEXTJOIN("::",TRUE,C31:C70)</f>
+        <v>int::text::text::text::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int0-10::text::text</v>
       </c>
       <c r="D71" t="str">
-        <f>_xlfn.TEXTJOIN("::",TRUE,D35:D70)</f>
-        <v>Me ha gustado el diseño estético de la aplicación::La paleta de colores y las animaciones eran de mi agrado::La herramienta se siente original y moderna::La herramienta NO se percibe anticuada y obsoleta::No he tenido problemas a la hora de navegar por la herramienta, he podido llegar donde quería de forma rápido::La distribución de los menús y pestañas es intuitiva y fácil de comprender::La herramienta es accesible de forma rápida y sencilla, sin necesidad de mucha preparación previa::La herramienta me ayuda a comprender la materia que aprender::El contenido que ofrece la herramienta se adecúa a la materia que estoy estudiando en clase::Me parece que los contenidos expuestos por la aplicación son útiles::Me parecen interesantes las cosas que he aprendido mediante la herramienta, ya que son prácticas en mi día a día.::El contenido enseñado en la herramienta es veraz y coincide con el que he obtenido en clase::No he encontrado contradicciones ni errores conceptuales mientras usaba la herramienta::No me he encontrado ejercicios que hayan bloqueado mi experiencia debido a su dificultad::La dificultad a lo largo de toda la experiencia ha sido progresiva, así como los conceptos que se enseñan::La duración de la experiencia a sido adecuada::La herramienta me ha parecido útil para mi aprendizaje::Creo que gracias a la herramienta he aprendido los conceptos de forma más sencilla::Estoy dispuesto a repetir una experiencia similar en otros cursos o asignaturas::Si pudiera usar esta herramienta en casa, para repasar, la usaría::Recomendaría esta herramienta a amigos o familiares, si tuvieran que aprender los conceptos que enseña::He disfrutado mientras usaba la herramienta::Las actividades que se proponen en la experiencia son divertidas y entretenidas::La materia que se enseña me motiva a continuar usando la herramienta.::Considero que he aprendido bastante sobre la materia::El uso de la herramienta me ha llevado a colaborar con otros compañeros::Colaborar con compañeros me ha ayudado a avanzar en la experiencia::Mientras usaba la herramienta he percibido competitividad con otros compañeros::Me motivaba competir con otros compañeros para ver quien obtenía mejores puntuaciones::Prefiero el uso de estas herramientas a la enseñanza tradicional::Creo que la frecuencia con la que se ha usado la herramienta es la adecuada::Creo que los grupos de trabajo tienen un tamaño adecuado::Considero que había suficientes profesores para gestionar todo el desarrollo de la actividad::Puntúe la experiencia del 0 al 10::Comente brevemente que le ha parecido la experiencia, justificando el punto anterior.::Indique que cosas mejoraría a nivel general así como los puntos fuertes de la experiencia.</v>
+        <f>_xlfn.TEXTJOIN("::",TRUE,D31:D70)</f>
+        <v>Edad::Nacionalidad::Género::Curso::Me ha gustado el diseño estético de la aplicación::La paleta de colores y las animaciones eran de mi agrado::La herramienta se siente original y moderna::La herramienta NO se percibe anticuada y obsoleta::No he tenido problemas a la hora de navegar por la herramienta, he podido llegar donde quería de forma rápido::La distribución de los menús y pestañas es intuitiva y fácil de comprender::La herramienta es accesible de forma rápida y sencilla, sin necesidad de mucha preparación previa::La herramienta me ayuda a comprender la materia que aprender::El contenido que ofrece la herramienta se adecúa a la materia que estoy estudiando en clase::Me parece que los contenidos expuestos por la aplicación son útiles::Me parecen interesantes las cosas que he aprendido mediante la herramienta, ya que son prácticas en mi día a día.::El contenido enseñado en la herramienta es veraz y coincide con el que he obtenido en clase::No he encontrado contradicciones ni errores conceptuales mientras usaba la herramienta::No me he encontrado ejercicios que hayan bloqueado mi experiencia debido a su dificultad::La dificultad a lo largo de toda la experiencia ha sido progresiva, así como los conceptos que se enseñan::La duración de la experiencia a sido adecuada::La herramienta me ha parecido útil para mi aprendizaje::Creo que gracias a la herramienta he aprendido los conceptos de forma más sencilla::Estoy dispuesto a repetir una experiencia similar en otros cursos o asignaturas::Si pudiera usar esta herramienta en casa, para repasar, la usaría::Recomendaría esta herramienta a amigos o familiares, si tuvieran que aprender los conceptos que enseña::He disfrutado mientras usaba la herramienta::Las actividades que se proponen en la experiencia son divertidas y entretenidas::La materia que se enseña me motiva a continuar usando la herramienta.::Considero que he aprendido bastante sobre la materia::El uso de la herramienta me ha llevado a colaborar con otros compañeros::Colaborar con compañeros me ha ayudado a avanzar en la experiencia::Mientras usaba la herramienta he percibido competitividad con otros compañeros::Me motivaba competir con otros compañeros para ver quien obtenía mejores puntuaciones::Prefiero el uso de estas herramientas a la enseñanza tradicional::Creo que la frecuencia con la que se ha usado la herramienta es la adecuada::Creo que los grupos de trabajo tienen un tamaño adecuado::Considero que había suficientes profesores para gestionar todo el desarrollo de la actividad::Puntúe la experiencia del 0 al 10::Comente brevemente que le ha parecido la experiencia, justificando el punto anterior.::Indique que cosas mejoraría a nivel general así como los puntos fuertes de la experiencia.</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,7 +4681,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="15" t="str">
         <f>"INSERT INTO survey_models (title, num_questions, questions, questions_style) VALUES ('"&amp;C30&amp;"','"&amp;E30&amp;"','"&amp;D71&amp;"','"&amp;C71&amp;"');"</f>
-        <v>INSERT INTO survey_models (title, num_questions, questions, questions_style) VALUES ('Encuesta','36','Me ha gustado el diseño estético de la aplicación::La paleta de colores y las animaciones eran de mi agrado::La herramienta se siente original y moderna::La herramienta NO se percibe anticuada y obsoleta::No he tenido problemas a la hora de navegar por la herramienta, he podido llegar donde quería de forma rápido::La distribución de los menús y pestañas es intuitiva y fácil de comprender::La herramienta es accesible de forma rápida y sencilla, sin necesidad de mucha preparación previa::La herramienta me ayuda a comprender la materia que aprender::El contenido que ofrece la herramienta se adecúa a la materia que estoy estudiando en clase::Me parece que los contenidos expuestos por la aplicación son útiles::Me parecen interesantes las cosas que he aprendido mediante la herramienta, ya que son prácticas en mi día a día.::El contenido enseñado en la herramienta es veraz y coincide con el que he obtenido en clase::No he encontrado contradicciones ni errores conceptuales mientras usaba la herramienta::No me he encontrado ejercicios que hayan bloqueado mi experiencia debido a su dificultad::La dificultad a lo largo de toda la experiencia ha sido progresiva, así como los conceptos que se enseñan::La duración de la experiencia a sido adecuada::La herramienta me ha parecido útil para mi aprendizaje::Creo que gracias a la herramienta he aprendido los conceptos de forma más sencilla::Estoy dispuesto a repetir una experiencia similar en otros cursos o asignaturas::Si pudiera usar esta herramienta en casa, para repasar, la usaría::Recomendaría esta herramienta a amigos o familiares, si tuvieran que aprender los conceptos que enseña::He disfrutado mientras usaba la herramienta::Las actividades que se proponen en la experiencia son divertidas y entretenidas::La materia que se enseña me motiva a continuar usando la herramienta.::Considero que he aprendido bastante sobre la materia::El uso de la herramienta me ha llevado a colaborar con otros compañeros::Colaborar con compañeros me ha ayudado a avanzar en la experiencia::Mientras usaba la herramienta he percibido competitividad con otros compañeros::Me motivaba competir con otros compañeros para ver quien obtenía mejores puntuaciones::Prefiero el uso de estas herramientas a la enseñanza tradicional::Creo que la frecuencia con la que se ha usado la herramienta es la adecuada::Creo que los grupos de trabajo tienen un tamaño adecuado::Considero que había suficientes profesores para gestionar todo el desarrollo de la actividad::Puntúe la experiencia del 0 al 10::Comente brevemente que le ha parecido la experiencia, justificando el punto anterior.::Indique que cosas mejoraría a nivel general así como los puntos fuertes de la experiencia.','int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int0-10::text::text');</v>
+        <v>INSERT INTO survey_models (title, num_questions, questions, questions_style) VALUES ('Encuesta','40','Edad::Nacionalidad::Género::Curso::Me ha gustado el diseño estético de la aplicación::La paleta de colores y las animaciones eran de mi agrado::La herramienta se siente original y moderna::La herramienta NO se percibe anticuada y obsoleta::No he tenido problemas a la hora de navegar por la herramienta, he podido llegar donde quería de forma rápido::La distribución de los menús y pestañas es intuitiva y fácil de comprender::La herramienta es accesible de forma rápida y sencilla, sin necesidad de mucha preparación previa::La herramienta me ayuda a comprender la materia que aprender::El contenido que ofrece la herramienta se adecúa a la materia que estoy estudiando en clase::Me parece que los contenidos expuestos por la aplicación son útiles::Me parecen interesantes las cosas que he aprendido mediante la herramienta, ya que son prácticas en mi día a día.::El contenido enseñado en la herramienta es veraz y coincide con el que he obtenido en clase::No he encontrado contradicciones ni errores conceptuales mientras usaba la herramienta::No me he encontrado ejercicios que hayan bloqueado mi experiencia debido a su dificultad::La dificultad a lo largo de toda la experiencia ha sido progresiva, así como los conceptos que se enseñan::La duración de la experiencia a sido adecuada::La herramienta me ha parecido útil para mi aprendizaje::Creo que gracias a la herramienta he aprendido los conceptos de forma más sencilla::Estoy dispuesto a repetir una experiencia similar en otros cursos o asignaturas::Si pudiera usar esta herramienta en casa, para repasar, la usaría::Recomendaría esta herramienta a amigos o familiares, si tuvieran que aprender los conceptos que enseña::He disfrutado mientras usaba la herramienta::Las actividades que se proponen en la experiencia son divertidas y entretenidas::La materia que se enseña me motiva a continuar usando la herramienta.::Considero que he aprendido bastante sobre la materia::El uso de la herramienta me ha llevado a colaborar con otros compañeros::Colaborar con compañeros me ha ayudado a avanzar en la experiencia::Mientras usaba la herramienta he percibido competitividad con otros compañeros::Me motivaba competir con otros compañeros para ver quien obtenía mejores puntuaciones::Prefiero el uso de estas herramientas a la enseñanza tradicional::Creo que la frecuencia con la que se ha usado la herramienta es la adecuada::Creo que los grupos de trabajo tienen un tamaño adecuado::Considero que había suficientes profesores para gestionar todo el desarrollo de la actividad::Puntúe la experiencia del 0 al 10::Comente brevemente que le ha parecido la experiencia, justificando el punto anterior.::Indique que cosas mejoraría a nivel general así como los puntos fuertes de la experiencia.','int::text::text::text::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int1-5::int0-10::text::text');</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
